--- a/data/GOZO_strategy.xlsx
+++ b/data/GOZO_strategy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2514A8-C391-0848-A90E-CD827F0838A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0057C0-F378-2D4F-8964-D8D58C240010}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32320" yWindow="2580" windowWidth="28800" windowHeight="16160" xr2:uid="{3ED843D8-AEB1-3D4E-B337-98446BB2CE17}"/>
   </bookViews>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CE9047-D882-FB41-A98E-BEB988A70E9C}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -474,6 +474,20 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>70.83</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
